--- a/05_AZ_104_Exam/Questions/Q_A.xlsx
+++ b/05_AZ_104_Exam/Questions/Q_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devops-labs\devops-labs\05_AZ_104_Exam\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE224E9-1BC6-4E26-84FC-DDF331F42B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF7BBE0-4B3D-4E2F-B309-D2C3B670243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>Q.No</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>C,C</t>
+  </si>
+  <si>
+    <t>B,D</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,6 +195,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -199,7 +215,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +251,14 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -520,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,24 +1000,26 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="16">
         <v>45981</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="16">
-        <v>45981</v>
+      <c r="B38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="20">
+        <v>45982</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -1001,9 +1027,11 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="16">
-        <v>45981</v>
+      <c r="B39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="20">
+        <v>45982</v>
       </c>
       <c r="D39" s="3"/>
     </row>
@@ -1011,9 +1039,11 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="16">
-        <v>45980</v>
+      <c r="B40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="20">
+        <v>45982</v>
       </c>
       <c r="D40" s="3"/>
     </row>
@@ -1021,79 +1051,146 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="5">
-        <v>45980</v>
+      <c r="B41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="20">
+        <v>45982</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="8"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
